--- a/Translations/en-es-FoodNinja-ContentThemeList.xlsx
+++ b/Translations/en-es-FoodNinja-ContentThemeList.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of fruits and vegetables. Complexity of task escalates with advancing level: at the beginning the focus is on the fruits and the vegetables alone, then playing with their colours is introduced.</t>
+          <t>Search for the fruits and vegetables! Slice them to earn points and learn about their nutritional value and colourful palette, how many you should consume daily, and clever ways to add them in your diet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Familiarización con el grupo de alimentos de frutas y verduras. La complejidad de la tarea se intensifica con el nivel de avance: al principio, el enfoque se centra en las frutas y las verduras solas, luego se introduce jugar con sus colores.</t>
+          <t>¡Busca las frutas y verduras! Córtelos para ganar puntos y conozca su valor nutricional y su paleta de colores, cuántos debe consumir diariamente y formas inteligentes de agregarlos a su dieta.</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Your task is to slice only the fruits you see.</t>
+          <t>Your task is to slice the fruits!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Su tarea es cortar solo las frutas que ves.</t>
+          <t>¡Tu tarea es cortar las frutas!</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruits are among the foods it is recommended you consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
+          <t>Fruits are among the foods you should consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Las frutas se encuentran entre los alimentos, se recomienda que consuma a diario. En general, 2-3 frutas por día es su objetivo final. Seleccionar una fruta como refrigerio, en la escuela o por la tarde, lo ayudará a alcanzar su objetivo diario. Para hacerlo, dale a Fruit una prioridad: ¡primero coma la fruta, luego cualquier otra cosa!</t>
+          <t>Las frutas se encuentran entre los alimentos que debes consumir a diario. En general, tu objetivo final es 2-3 frutas al día. Seleccionar una fruta como merienda, en el colegio o por la tarde, te ayudará a conseguir tu objetivo diario. Para ello, dale prioridad a la fruta: ¡primero come la fruta y luego cualquier otra cosa!</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Your task is to slice only the veggies you see.</t>
+          <t>Your task is to slice the vegetables !</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Su tarea es cortar solo las verduras que ves.</t>
+          <t>¡Tu tarea es cortar las verduras!</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegetables, like fruits, are also recommended to be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with veggies!</t>
+          <t>Vegetables, like fruits, should be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with vegetables!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>También se recomienda que las verduras, como las frutas, se consuman a diario. Se pueden servir como ensalada o incluso como plato principal. Para cumplir con su objetivo cotidiano, ¡acompañe sus comidas principales con verduras!</t>
+          <t>Las verduras, al igual que las frutas, deben consumirse a diario. Se pueden servir como ensalada o incluso como plato principal. ¡Para cumplir tu objetivo diario, acompaña tus comidas principales con verduras!</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Your task is to slice only the F&amp;V with red colour.</t>
+          <t>Your task is to slice the fruits anf vegetables with red colour!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Su tarea es cortar solo el F&amp;V con color rojo.</t>
+          <t>¡Tu tarea es cortar las frutas y verduras de color rojo!</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of dairy products. The complexity of the task increases with each level: first, the focus is on identifying and slicing common dairy products; then, learners move on to slicing the image that shows the recommended daily consumption of dairy products; finally, they identify and slice the image that highlights the key nutrient found in dairies, i.e. calcium.</t>
+          <t>Search for the dairy products! Slice them to earn points and learn about their key nutrients, how many you should consume daily, their serving size, and clever ways to add them in your diet..</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Familiarización con el grupo de alimentos de productos lácteos. La complejidad de la tarea aumenta con cada nivel: primero, el enfoque es identificar y cortar productos lácteos comunes; Luego, los alumnos pasan a cortar la imagen que muestra el consumo diario recomendado de productos lácteos; Finalmente, identifican y cortan la imagen que resalta el nutriente clave que se encuentra en las lecherías, es decir, calcio.</t>
+          <t>¡Busca los productos lácteos! Córtelos para ganar puntos y conozca sus nutrientes clave, cuántos debe consumir diariamente, el tamaño de la porción y formas inteligentes de agregarlos a su dieta.</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Your task is to slice only the dairy products you see.</t>
+          <t>Your task is to slice the dairy products!</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Su tarea es cortar solo los productos lácteos que ve.</t>
+          <t>¡Tu tarea es cortar los productos lácteos!</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Make dairies a daily habit! Include them early in your day and build healthy habits that last!</t>
+          <t>Make dairy products a daily habit! Include them early in your day and build healthy habits that last!</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>¡Haga de las lecherías un hábito diario! ¡Incluirlos temprano en su día y construir hábitos saludables que duren!</t>
+          <t>¡Haz de los productos lácteos un hábito diario! ¡Inclúyalos temprano en su día y desarrolle hábitos saludables que duren!</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dairy products like milk, yogurt, and cheese are foods recommended for daily consumption because they provide key nutrients for your growth and development.</t>
+          <t>Dairy products like milk, yogurt, and cheese are foods you shoulod consume daily because they provide key nutrients for your growth and development.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Los productos lácteos como la leche, el yogurt y el queso son alimentos recomendados para el consumo diario porque proporcionan nutrientes clave para su crecimiento y desarrollo.</t>
+          <t>Los productos lácteos como la leche, el yogur y el queso son alimentos que debes consumir a diario porque aportan nutrientes clave para tu crecimiento y desarrollo.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Your task is to slice only the recommended daily consumption of dairy products you see.</t>
+          <t>Your task is to slice the recommended daily consumption of dairy products!</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Su tarea es cortar solo el consumo diario recomendado de productos lácteos que ve.</t>
+          <t>¡Tu tarea es reducir el consumo diario recomendado de productos lácteos!</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Go with dairies every day!</t>
+          <t>Go with dairy products every day!</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>¡Ve con las lecherías todos los días!</t>
+          <t>¡Consuma productos lácteos todos los días!</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy option to stay strong and healthy!</t>
+          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy product boption to stay strong and healthy!</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Para cumplir con el objetivo de 3-4 porciones de productos lácteos por día, intente incluir un vaso de leche con desayuno, yogurt como bocadillo o queso con su almuerzo o cena. Haz que sea un hábito: ¡combina tus comidas o bocadillos con una opción de lácteos para mantenerte fuerte y saludable!</t>
+          <t>Para alcanzar el objetivo de 3-4 porciones de productos lácteos al día, intente incluir un vaso de leche en el desayuno, yogur como merienda o queso en el almuerzo o la cena. Conviértalo en un hábito: combine sus comidas o refrigerios con una opción de productos lácteos para mantenerse fuerte y saludable.</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Your task is to identify what counts as one portion of a dairy product. Select all the items that represent a standard dairy portion.</t>
+          <t xml:space="preserve">Your task is to slice what counts as one portion of a dairy product. </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Su tarea es identificar lo que cuenta como una parte de un producto lácteo. Seleccione todos los elementos que representan una porción láctea estándar.</t>
+          <t>Tu tarea es cortar lo que cuenta como una porción de un producto lácteo.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Your task is to slice only the key nutrient found in dairy products. Note that: Ca: calcium, Fe: Iron.</t>
+          <t>Your task is to slice the key nutrient found in dairy products! Note that: Ca: calcium, Fe: Iron, vE: vitamin E.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Su tarea es cortar solo el nutriente clave que se encuentra en los productos lácteos. Tenga en cuenta que: CA: Calcio, Fe: hierro.</t>
+          <t>¡Tu tarea es dividir el nutriente clave que se encuentra en los productos lácteos! Tenga en cuenta que: Ca: calcio, Fe: hierro, vE: vitamina E.</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dairy products are one of the best sources of calcium (Ca), which helps build strong bones and teeth.</t>
+          <t>Dairy products are one of the best sources of calcium , which helps build strong bones and teeth.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Los productos lácteos son una de las mejores fuentes de calcio (CA), que ayuda a construir huesos y dientes fuertes.</t>
+          <t>Los productos lácteos son una de las mejores fuentes de calcio, que ayuda a desarrollar huesos y dientes fuertes.</t>
         </is>
       </c>
     </row>
